--- a/professores.xlsx
+++ b/professores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagolima/Library/CloudStorage/Dropbox/Alocacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F469B427-73BE-FE48-9AD0-6B9C6E4FE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC21698-7292-DF4A-BA94-7511CC5005D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,12 +378,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="241.6640625" customWidth="1"/>
     <col min="5" max="5" width="315.1640625" customWidth="1"/>
@@ -555,7 +556,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -569,7 +570,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
